--- a/summary.xlsx
+++ b/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11550"/>
+    <workbookView windowWidth="27795" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Layer Quantization Schemes</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>2/2/2/2</t>
+  </si>
+  <si>
+    <t>1/2/4/8</t>
   </si>
   <si>
     <t>8/4/2/1</t>
@@ -41,18 +44,24 @@
   <si>
     <t>Tiny CNN (TCV)</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +70,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,6 +149,58 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,128 +213,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,115 +223,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,67 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,11 +417,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,36 +452,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +485,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -517,152 +519,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +672,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.9" customWidth="1"/>
   </cols>
@@ -1040,7 +1045,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1056,10 +1061,13 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>0.9321</v>
@@ -1068,18 +1076,21 @@
         <v>0.9611</v>
       </c>
       <c r="D3" s="2">
+        <v>0.9596</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.9696</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.9759</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>0.9774</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>0.9753</v>
@@ -1087,19 +1098,94 @@
       <c r="C4" s="2">
         <v>0.9879</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.9848</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.9889</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
+        <v>0.9922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.9321</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.9611</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.9696</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.9759</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.9774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.9753</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.9879</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.9848</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.9889</v>
+      </c>
+      <c r="F10" s="2">
         <v>0.9922</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1116,7 +1202,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1133,7 +1219,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
